--- a/Team Member Review.xlsx
+++ b/Team Member Review.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="HW1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="HW2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="HW3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t xml:space="preserve">Elizabeth</t>
   </si>
@@ -96,6 +97,15 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great! No issues! Love working with her! Has done a lot of work for our team. I appreciate all that she has done! If something needs to be done, she all on it! Her work on firebase has really helped the team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sam does what he is asked to do, and hes presenting since hes a good public speaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lorrayya works well when given tasks to do, but she still struggles with github despite us walking her through how to use it multiple times. This has caused some problems.</t>
   </si>
 </sst>
 </file>
@@ -489,7 +499,7 @@
   </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -709,4 +719,235 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.78"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Team Member Review.xlsx
+++ b/Team Member Review.xlsx
@@ -158,7 +158,7 @@
     <t xml:space="preserve">Nathan did any iOS debugging that needed to be done, as well as the TRACK page, with Elizabeths help to talk to Firebase.</t>
   </si>
   <si>
-    <t xml:space="preserve">Sam did the Logo design, Grassroots Green image modification, basic page setup for EAT, and communication with GG.</t>
+    <t xml:space="preserve">Sam did the Logo design, Grassroots Green image modification, basic page setup for EAT, and communication with GG. Sam, Nathan, and I did the user testing. Sam drafted our test script and did the write up.</t>
   </si>
   <si>
     <t xml:space="preserve">Lorrayya did the LEARN content, however Elizabeth got it reading from the database. Lorrayya also made some backround images, which we didn’t end up using. She also did the reset password on the login page.</t>
@@ -1272,7 +1272,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
